--- a/assets/results/VT_result.xlsx
+++ b/assets/results/VT_result.xlsx
@@ -7,14 +7,27 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bennington County" sheetId="1" r:id="rId1"/>
+    <sheet name="Caledonia County" sheetId="2" r:id="rId2"/>
+    <sheet name="Essex County" sheetId="3" r:id="rId3"/>
+    <sheet name="Franklin County" sheetId="4" r:id="rId4"/>
+    <sheet name="Lamoille County" sheetId="5" r:id="rId5"/>
+    <sheet name="Orange County" sheetId="6" r:id="rId6"/>
+    <sheet name="Rutland County" sheetId="7" r:id="rId7"/>
+    <sheet name="Washington County" sheetId="8" r:id="rId8"/>
+    <sheet name="Windsor County" sheetId="9" r:id="rId9"/>
+    <sheet name="Addison County" sheetId="10" r:id="rId10"/>
+    <sheet name="Chittenden County" sheetId="11" r:id="rId11"/>
+    <sheet name="Grand Isle County" sheetId="12" r:id="rId12"/>
+    <sheet name="Orleans County" sheetId="13" r:id="rId13"/>
+    <sheet name="Windham County" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="82">
   <si>
     <t>question</t>
   </si>
@@ -175,13 +188,91 @@
     <t>Ratio of Native Americans to whites with health insurance</t>
   </si>
   <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Bennington County</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>Caledonia County</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>Essex County</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>Franklin County</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Lamoille County</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Orange County</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>Rutland County</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>Washington County</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>Windsor County</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Addison County</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>Chittenden County</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Grand Isle County</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>Orleans County</t>
+  </si>
+  <si>
     <t>025</t>
   </si>
   <si>
     <t>Windham County</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
 </sst>
 </file>
@@ -583,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>42628</v>
+        <v>35649</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -594,7 +685,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>39444</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -605,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>493</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -616,7 +707,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,7 +718,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>516</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>1027</v>
+        <v>753</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,7 +740,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>22905</v>
+        <v>17725</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -660,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>63.1</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -671,7 +762,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>58.1</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -682,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>53.9</v>
+        <v>80.59999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -693,7 +784,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>67.2</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -704,7 +795,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>78.09999999999999</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -715,7 +806,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.9207606973058637</v>
+        <v>0.7504244482173176</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -726,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>3.156893819334389</v>
+        <v>3.867572156196944</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -737,7 +828,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>8595</v>
+        <v>6667</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -770,7 +861,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>13.77094972067039</v>
+        <v>140.8367346938776</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -781,7 +872,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>102.9548693586698</v>
+        <v>109.3516483516484</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -792,7 +883,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>821.0615989515072</v>
+        <v>439.25</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -814,7 +905,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.08231030047936397</v>
+        <v>0.08555399719495091</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -825,7 +916,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>31191</v>
+        <v>32424</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -836,7 +927,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>31594</v>
+        <v>33576</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -869,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>27629</v>
+        <v>25885</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -880,7 +971,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>35556</v>
+        <v>25143</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -891,7 +982,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>12616</v>
+        <v>9536</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -913,7 +1004,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>72.40000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -924,7 +1015,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>11.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -935,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>36.7</v>
+        <v>71.3</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -946,7 +1037,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>39.9</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -967,8 +1058,8 @@
       <c r="B39" t="s">
         <v>39</v>
       </c>
-      <c r="C39">
-        <v>13.4</v>
+      <c r="C39" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -979,7 +1070,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>12.8</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -990,7 +1081,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>35.9</v>
+        <v>23.2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1001,7 +1092,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>46.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1012,7 +1103,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>37.3</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1023,7 +1114,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>7.9</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1034,7 +1125,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>3.6484375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1045,7 +1136,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>94.7</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1056,7 +1147,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>95.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1067,7 +1158,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>90.7</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1078,7 +1169,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>83.8</v>
+        <v>78.3</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1089,7 +1180,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>96.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1100,7 +1191,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>76</v>
+        <v>91.8</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1111,7 +1202,7573 @@
         <v>52</v>
       </c>
       <c r="C52">
+        <v>0.816475495307612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>36947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>34099</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>20890</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>66.59999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>39.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.5975975975975976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.833333333333333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>8111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>22.69911504424779</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>166.3948717948718</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>216.4166666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>657.6923076923076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.002413924533096176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1135815017151569</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>34635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>8229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>10517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>57.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>5.805970149253731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>97.40000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9264705882352942</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>163414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>143764</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>95746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>68.90000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>80.90000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.6981132075471698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.407837445573294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>45867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>53.40151515151516</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>952.2384105960265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2087.853496784566</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>2953.512210593086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001241653976806841</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.1109288977392527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>37301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>39565</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>21526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>30782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>30042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>56967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.673076923076923</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>91.90000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8578784757981462</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>6517</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3732</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>63.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.4236220472440945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.374803149606299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>14.53846153846154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>6.705882352941177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.009120521172638436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.009120521172638436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>41154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>41838</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>98125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>19102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>27083</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>96.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>96.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9989626556016596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>26843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>25435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>13701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>62.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7828200972447324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.212317666126418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>4510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>11.74418604651163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>266.6062717770035</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.004026845637583893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.0447427293064877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>31708</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>32286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>21964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>2499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>17778</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>4758</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0.7317073170731707</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>98.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>90.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>97.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.017561983471075</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>42628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>39444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>22905</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>78.09999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9207606973058637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.156893819334389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>8595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>13.77094972067039</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>102.9548693586698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>821.0615989515072</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.08231030047936397</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>31191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>31594</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>27629</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>35556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>12616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>3.6484375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.09999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
         <v>0.8811777076761305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>30027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>28268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>15638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.8346709470304976</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.42215088282504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>5402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>10.7906976744186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>294.6344086021505</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001522939272796497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.04568817818389492</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>31224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>31225</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>35893</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>27303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>37098</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>6612</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>35.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>4.137931034482759</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.90000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>93.09999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.7716371220020855</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>6179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>19.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.742160278745645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>1.550522648083624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>31.53333333333333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.003554502369668246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.02606635071090047</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>29224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>29504</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>52250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>43.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.59999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.7928118393234673</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>49275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>26490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>73.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.7522388059701492</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.574626865671642</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>9308</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>18.20610687022901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>2.335403726708075</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>159.1893687707641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>706.9470198675497</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.001635590448151783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.07152982226583797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>38758</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>40145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>34286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>26250</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>15250</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>9148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.199999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.369565217391304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.59999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>93.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.8914167528438469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>25376</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>23912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>14495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>44.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>83.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>90.09999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.6420289855072463</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.96231884057971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>5343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>38.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>123.8125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>398.6666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.007018247443352717</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.07499498696611188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>34383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>34629</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>24332</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>45917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>22125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>7309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>58.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.878260869565218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>94.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>94.90000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>85.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.7544783983140146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>28873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>27496</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>16100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>78.90000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.036199095022625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.060331825037707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>6174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>4.240963855421686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>48.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>7.51578947368421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>163.2820512820513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.0006625807520291535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.02931919827729005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>36018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>36161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>27833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>22244</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>33452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>41.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>8.300000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>16.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>1.163265306122449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>99.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.00104821802935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>58527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>55432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>30504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>65.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>55.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.9466882067851373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>2.746365105008078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>10293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>17.9375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>189.0182232346241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>598.4378698224853</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06268627061394795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>33178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>33805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>29057</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>28382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>13747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>0.1634615384615385</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>96.90000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.048218029350105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>58336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>54664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>32447</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>83.09999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>81.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>1.249624060150376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.151879699248121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>14541</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>234.5034013605442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>511.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.04148253741981468</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>37714</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>38447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>20556</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>11463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>37882</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>21932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>18228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>76.40000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39">
+        <v>10.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.699999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>51.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>5.350515463917526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>96.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>79.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>1.034126163391934</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>55191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>52146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>28919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>71.59999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>70.40000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>0.518341307814992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>3.248803827751196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>11767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21">
+        <v>123.9452054794521</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>161.9591346153846</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23">
+        <v>684.99604743083</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>0.000784313725490196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>0.06474945533769064</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>36276</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>36477</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>36979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>-666666666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>26094</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>15949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>9.300000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2.43010752688172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46">
+        <v>95.40000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>95.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>89.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51">
+        <v>89.59999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52">
+        <v>0.9235602094240838</v>
       </c>
     </row>
   </sheetData>
